--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@ProjectsThatRequireSpace\ChatGPT-Code-Cloning-Checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4629D5-86D8-4A23-B269-963E936B4217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A1421C-3DCD-451E-B8E3-D3AF55997F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5FF1C14A-BFC3-4D0E-AF22-59D97B9AA016}"/>
   </bookViews>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225B3F5B-BA0F-45BC-9F1C-F6C757AA2AED}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,38 +489,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>9</v>
-      </c>
-      <c r="J2">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
